--- a/src/assets/员工导入模板.xlsx
+++ b/src/assets/员工导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>手机号</t>
   </si>
@@ -53,11 +53,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15451786349</t>
+    <r>
+      <t>155217861</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>78</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15521786139</t>
+    <r>
+      <t>巴5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>步本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>154517863</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>155217861</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +156,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,10 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,13 +509,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>43535</v>
       </c>
       <c r="D2">
@@ -435,7 +524,7 @@
       <c r="E2">
         <v>88088</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>43719</v>
       </c>
       <c r="G2" t="s">
@@ -443,13 +532,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>43536</v>
       </c>
       <c r="D3">
@@ -458,16 +547,39 @@
       <c r="E3">
         <v>88089</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>43719</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43536</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>88089</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43719</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>